--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_5.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_21</t>
+          <t>model_5_5_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7435059978412246</v>
+        <v>0.4437020344020186</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3325837382098236</v>
+        <v>0.1639128337983419</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5343534137735011</v>
+        <v>-0.5025018283923479</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4400194059543341</v>
+        <v>-0.1477052686655687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2838632762432098</v>
+        <v>0.6156579256057739</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5440429449081421</v>
+        <v>0.7016465067863464</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97828209400177</v>
+        <v>2.942265033721924</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7483905553817749</v>
+        <v>1.75605034828186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_20</t>
+          <t>model_5_5_19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7436276214155254</v>
+        <v>0.4560040278245617</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3044903780585164</v>
+        <v>0.1945075140017579</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5272138041074754</v>
+        <v>-0.4568386020987696</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.424212880057883</v>
+        <v>-0.111322504978457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2837286591529846</v>
+        <v>0.6020432710647583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5325734615325928</v>
+        <v>0.6759713292121887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9737300276756287</v>
+        <v>2.852845191955566</v>
       </c>
       <c r="I3" t="n">
-        <v>0.740175724029541</v>
+        <v>1.700382828712463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_19</t>
+          <t>model_5_5_18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.744087834769272</v>
+        <v>0.4625751248378341</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2850514066881573</v>
+        <v>0.2051591350178826</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5060301498120827</v>
+        <v>-0.4233433843612238</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4038986619748852</v>
+        <v>-0.08806084387972901</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2832193672657013</v>
+        <v>0.5947709679603577</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5246372818946838</v>
+        <v>0.6670324802398682</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9602236151695251</v>
+        <v>2.787253379821777</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7296183109283447</v>
+        <v>1.664791226387024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_18</t>
+          <t>model_5_5_17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7451520729861028</v>
+        <v>0.4695370056520793</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2480042892958079</v>
+        <v>0.2139996192217355</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4918098190304432</v>
+        <v>-0.3869481617171986</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3802829266861434</v>
+        <v>-0.06357989706469969</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2820415496826172</v>
+        <v>0.5870662331581116</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5095123648643494</v>
+        <v>0.6596134901046753</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9511568546295166</v>
+        <v>2.715982675552368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7173449397087097</v>
+        <v>1.627333998680115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_17</t>
+          <t>model_5_5_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7467042910710642</v>
+        <v>0.4890361506169921</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2149192539364395</v>
+        <v>0.2441349376097992</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4683231000751413</v>
+        <v>-0.3106142436801993</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.352964201612785</v>
+        <v>-0.008850358049641072</v>
       </c>
       <c r="F6" t="n">
-        <v>0.280323714017868</v>
+        <v>0.5654863715171814</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4960050582885742</v>
+        <v>0.6343238353729248</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9361821413040161</v>
+        <v>2.566502094268799</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7031471729278564</v>
+        <v>1.543594837188721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_16</t>
+          <t>model_5_5_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7487240912405705</v>
+        <v>0.4991155308119957</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1817211665652521</v>
+        <v>0.245337015652618</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4374642125783537</v>
+        <v>-0.2570894845578111</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3213427779197202</v>
+        <v>0.02375066583830143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.278088390827179</v>
+        <v>0.5543315410614014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4824514985084534</v>
+        <v>0.6333150863647461</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9165068864822388</v>
+        <v>2.461687803268433</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6867132782936096</v>
+        <v>1.49371349811554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_15</t>
+          <t>model_5_5_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7512843278182902</v>
+        <v>0.5138247052748552</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1482673597274626</v>
+        <v>0.2498807592286936</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4001363666484707</v>
+        <v>-0.186274280018131</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2858777655146163</v>
+        <v>0.06771001646738983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2752549648284912</v>
+        <v>0.5380527377128601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4687936007976532</v>
+        <v>0.62950199842453</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8927072286605835</v>
+        <v>2.323014259338379</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6682817935943604</v>
+        <v>1.426453351974487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_14</t>
+          <t>model_5_5_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7538588090241645</v>
+        <v>0.5308304599066355</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1141085272901399</v>
+        <v>0.2583412027022827</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3623662130595884</v>
+        <v>-0.1070804175665383</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2498682011401931</v>
+        <v>0.1178563375921159</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2724057734012604</v>
+        <v>0.5192323923110962</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4548478722572327</v>
+        <v>0.6224019527435303</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8686255216598511</v>
+        <v>2.167933464050293</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6495673060417175</v>
+        <v>1.349726796150208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_13</t>
+          <t>model_5_5_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7555912336800159</v>
+        <v>0.5527359680699218</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.08089769195070429</v>
+        <v>0.2642190410522356</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3328456407261675</v>
+        <v>-0.007012162702188407</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2190138081716606</v>
+        <v>0.179845217086395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2704885005950928</v>
+        <v>0.4949894845485687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4412891566753387</v>
+        <v>0.6174692511558533</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8498035669326782</v>
+        <v>1.971975326538086</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6335320472717285</v>
+        <v>1.254880547523499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_12</t>
+          <t>model_5_5_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7589856285302166</v>
+        <v>0.5570710810396261</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03243202796142275</v>
+        <v>0.2284719890635835</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.292824797295725</v>
+        <v>0.06179633836513954</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1757508493655968</v>
+        <v>0.2109082438867399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2667318880558014</v>
+        <v>0.490191787481308</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4215024709701538</v>
+        <v>0.6474682688713074</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8242868781089783</v>
+        <v>1.837231397628784</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6110479235649109</v>
+        <v>1.207352519035339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_11</t>
+          <t>model_5_5_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7685572087963213</v>
+        <v>0.5583351645460298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1661264335822844</v>
+        <v>-0.2056885621503861</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1955193910227131</v>
+        <v>-0.06568409108182105</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03699697038628069</v>
+        <v>0.008058978027973618</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2561389803886414</v>
+        <v>0.4887928366661072</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3404386639595032</v>
+        <v>1.0118168592453</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7622463703155518</v>
+        <v>2.086869239807129</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5389362573623657</v>
+        <v>1.517722725868225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_10</t>
+          <t>model_5_5_22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7731068345389758</v>
+        <v>0.5626389100006616</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2043341445302359</v>
+        <v>-0.1501135590352825</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.127715075328936</v>
+        <v>-0.0789160853437374</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01803564598248919</v>
+        <v>0.01622649083408434</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2511038780212402</v>
+        <v>0.4840298295021057</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3248399496078491</v>
+        <v>0.9651781916618347</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7190152406692505</v>
+        <v>2.112780570983887</v>
       </c>
       <c r="I13" t="n">
-        <v>0.510335385799408</v>
+        <v>1.505226016044617</v>
       </c>
     </row>
     <row r="14">
@@ -854,90 +854,90 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7769379694472184</v>
+        <v>0.5634358415888661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2271407438209838</v>
+        <v>0.2143277020570798</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05641831827989896</v>
+        <v>0.1124806628758737</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06868521729608423</v>
+        <v>0.23732339683173</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2468639463186264</v>
+        <v>0.4831478595733643</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3155288398265839</v>
+        <v>0.6593382358551025</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6735574007034302</v>
+        <v>1.737979292869568</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4840123653411865</v>
+        <v>1.166935920715332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_8</t>
+          <t>model_5_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7777339058977083</v>
+        <v>0.5634780784555854</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2473684114015134</v>
+        <v>0.2704565757809917</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01693147561794039</v>
+        <v>0.04933563697733168</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09989184689602004</v>
+        <v>0.2155954279668444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2459830790758133</v>
+        <v>0.4831011593341827</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3072706758975983</v>
+        <v>0.6122347116470337</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6483811736106873</v>
+        <v>1.861632704734802</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4677939713001251</v>
+        <v>1.200180888175964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_22</t>
+          <t>model_5_5_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8034065883681787</v>
+        <v>0.56796453343292</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.179309225431457</v>
+        <v>0.2005386000255994</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2048185172892593</v>
+        <v>0.1567230377261105</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3654200594973493</v>
+        <v>0.2599684393121864</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2175709903240204</v>
+        <v>0.4781359136104584</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8897285461425781</v>
+        <v>0.6709100008010864</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5069965124130249</v>
+        <v>1.651341795921326</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7096205353736877</v>
+        <v>1.132287859916687</v>
       </c>
     </row>
     <row r="17">
@@ -947,307 +947,307 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8084133783151775</v>
+        <v>0.5688575100333072</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9456530206347589</v>
+        <v>0.1018919747933875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.825733725379187</v>
+        <v>0.4000017960718766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8767895159962136</v>
+        <v>0.377847229516581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2120299339294434</v>
+        <v>0.4771477282047272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02218779176473618</v>
+        <v>0.7536945343017578</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1111097186803818</v>
+        <v>1.174942851066589</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06403356045484543</v>
+        <v>0.9519269466400146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_24</t>
+          <t>model_5_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8087838756924155</v>
+        <v>0.571715362281616</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.098251438247807</v>
+        <v>0.189754038856524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1996159610798746</v>
+        <v>0.1975337060022163</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3347122797204238</v>
+        <v>0.2814139053082312</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2116199284791946</v>
+        <v>0.4739848971366882</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8566357493400574</v>
+        <v>0.6799604892730713</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5103135704994202</v>
+        <v>1.571424603462219</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6936615109443665</v>
+        <v>1.099475026130676</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_23</t>
+          <t>model_5_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8100264858688695</v>
+        <v>0.572969649704502</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.049796857832292</v>
+        <v>0.1667621341157163</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1911795245293527</v>
+        <v>0.2349120486690038</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3194269343784839</v>
+        <v>0.297250601677016</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2102446854114532</v>
+        <v>0.4725967347621918</v>
       </c>
       <c r="G19" t="n">
-        <v>0.836853563785553</v>
+        <v>0.6992553472518921</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5156925320625305</v>
+        <v>1.498228669166565</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6857175827026367</v>
+        <v>1.075244069099426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_1</t>
+          <t>model_5_5_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8146307241234653</v>
+        <v>0.5730617473283708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9454978412037593</v>
+        <v>0.1264596225066438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8166728976794388</v>
+        <v>0.3023048497550352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.871494320403269</v>
+        <v>0.3261364029475776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2051491737365723</v>
+        <v>0.4724948108196259</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02225114405155182</v>
+        <v>0.7330772876739502</v>
       </c>
       <c r="H20" t="n">
-        <v>0.116886779665947</v>
+        <v>1.366257309913635</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06678551435470581</v>
+        <v>1.031047224998474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_2</t>
+          <t>model_5_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8206247811092942</v>
+        <v>0.5744110493216003</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9431111983429264</v>
+        <v>0.1481735283883039</v>
       </c>
       <c r="D21" t="n">
-        <v>0.809712811356782</v>
+        <v>0.2725844367299028</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8664834595991229</v>
+        <v>0.3145457994684896</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1985155045986176</v>
+        <v>0.4710015654563904</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02322551980614662</v>
+        <v>0.7148549556732178</v>
       </c>
       <c r="H21" t="n">
-        <v>0.121324434876442</v>
+        <v>1.42445695400238</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0693897008895874</v>
+        <v>1.048781514167786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_3</t>
+          <t>model_5_5_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8261260264525516</v>
+        <v>0.5783592143252647</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9392994039979304</v>
+        <v>0.07941049139846923</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8008166295079683</v>
+        <v>-0.1316231137366113</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8597622374320005</v>
+        <v>0.05112734728463186</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1924272626638412</v>
+        <v>0.4666320979595184</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02478172816336155</v>
+        <v>0.7725610733032227</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1269965171813965</v>
+        <v>2.215993881225586</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07288277894258499</v>
+        <v>1.451825737953186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_4</t>
+          <t>model_5_5_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8312521100965584</v>
+        <v>0.5808566480439026</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9319923808796623</v>
+        <v>0.1402280814502024</v>
       </c>
       <c r="D23" t="n">
-        <v>0.792808645549665</v>
+        <v>0.4019968951279553</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8521000405914632</v>
+        <v>0.3901782009903616</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1867541968822479</v>
+        <v>0.4638682007789612</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02776490896940231</v>
+        <v>0.7215227484703064</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1321022808551788</v>
+        <v>1.171035885810852</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07686489075422287</v>
+        <v>0.9330598711967468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_5</t>
+          <t>model_5_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8352947468914214</v>
+        <v>0.5931181386068591</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9163969221403854</v>
+        <v>0.2000647665892772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.777617421988392</v>
+        <v>0.3946328513689588</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8368439672940342</v>
+        <v>0.40312068519137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1822801679372787</v>
+        <v>0.4502983093261719</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03413193300366402</v>
+        <v>0.6713076829910278</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1417879909276962</v>
+        <v>1.185456395149231</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08479359745979309</v>
+        <v>0.9132571816444397</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_6</t>
+          <t>model_5_5_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8405220138570405</v>
+        <v>0.5955639851375476</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9188833934396822</v>
+        <v>0.2094891028499937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.771166609754189</v>
+        <v>0.3733662940089891</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8341538554906439</v>
+        <v>0.3930466055519404</v>
       </c>
       <c r="F25" t="n">
-        <v>0.176495149731636</v>
+        <v>0.4475915133953094</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03311680257320404</v>
+        <v>0.6633987426757812</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1459009498357773</v>
+        <v>1.227101564407349</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08619166910648346</v>
+        <v>0.92867112159729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_7</t>
+          <t>model_5_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8440910536007868</v>
+        <v>0.8234903942607884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9080639338582857</v>
+        <v>0.6900244314348998</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7559753301021285</v>
+        <v>0.4573846131001086</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8208838267840746</v>
+        <v>0.5831836203725356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1725452691316605</v>
+        <v>0.1953441202640533</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03753397986292839</v>
+        <v>0.2601322829723358</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1555866897106171</v>
+        <v>1.062573194503784</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09308822453022003</v>
+        <v>0.6377512812614441</v>
       </c>
     </row>
   </sheetData>
